--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Clec14a</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H2">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I2">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J2">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.847135443296761</v>
+        <v>9.929107999999999</v>
       </c>
       <c r="N2">
-        <v>9.847135443296761</v>
+        <v>29.787324</v>
       </c>
       <c r="O2">
-        <v>0.8258320734631955</v>
+        <v>0.8066781947969484</v>
       </c>
       <c r="P2">
-        <v>0.8258320734631955</v>
+        <v>0.8066781947969485</v>
       </c>
       <c r="Q2">
-        <v>395.8459846277998</v>
+        <v>407.159148765852</v>
       </c>
       <c r="R2">
-        <v>395.8459846277998</v>
+        <v>3664.432338892668</v>
       </c>
       <c r="S2">
-        <v>0.7727652340018201</v>
+        <v>0.7541699835520634</v>
       </c>
       <c r="T2">
-        <v>0.7727652340018201</v>
+        <v>0.7541699835520634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H3">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I3">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J3">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.84096144115554</v>
+        <v>1.894331</v>
       </c>
       <c r="N3">
-        <v>1.84096144115554</v>
+        <v>5.682993</v>
       </c>
       <c r="O3">
-        <v>0.154392616296367</v>
+        <v>0.1539025974365369</v>
       </c>
       <c r="P3">
-        <v>0.154392616296367</v>
+        <v>0.1539025974365369</v>
       </c>
       <c r="Q3">
-        <v>74.00499348590773</v>
+        <v>77.680109576889</v>
       </c>
       <c r="R3">
-        <v>74.00499348590773</v>
+        <v>699.1209861920009</v>
       </c>
       <c r="S3">
-        <v>0.1444715579525532</v>
+        <v>0.1438847859356716</v>
       </c>
       <c r="T3">
-        <v>0.1444715579525532</v>
+        <v>0.1438847859356716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.1991002263774</v>
+        <v>41.006619</v>
       </c>
       <c r="H4">
-        <v>40.1991002263774</v>
+        <v>123.019857</v>
       </c>
       <c r="I4">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J4">
-        <v>0.9357413678075794</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.235798735152275</v>
+        <v>0.01185166666666667</v>
       </c>
       <c r="N4">
-        <v>0.235798735152275</v>
+        <v>0.035555</v>
       </c>
       <c r="O4">
-        <v>0.01977531024043757</v>
+        <v>0.000962874114371788</v>
       </c>
       <c r="P4">
-        <v>0.01977531024043757</v>
+        <v>0.000962874114371788</v>
       </c>
       <c r="Q4">
-        <v>9.478896987639324</v>
+        <v>0.4859967795150001</v>
       </c>
       <c r="R4">
-        <v>9.478896987639324</v>
+        <v>4.373971015635001</v>
       </c>
       <c r="S4">
-        <v>0.01850457585320628</v>
+        <v>0.0009001988149453648</v>
       </c>
       <c r="T4">
-        <v>0.01850457585320628</v>
+        <v>0.0009001988149453647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.0676591289162</v>
+        <v>41.006619</v>
       </c>
       <c r="H5">
-        <v>2.0676591289162</v>
+        <v>123.019857</v>
       </c>
       <c r="I5">
-        <v>0.04813028576650383</v>
+        <v>0.9349081063755518</v>
       </c>
       <c r="J5">
-        <v>0.04813028576650383</v>
+        <v>0.9349081063755517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.847135443296761</v>
+        <v>0.4733450000000001</v>
       </c>
       <c r="N5">
-        <v>9.847135443296761</v>
+        <v>1.420035</v>
       </c>
       <c r="O5">
-        <v>0.8258320734631955</v>
+        <v>0.03845633365214293</v>
       </c>
       <c r="P5">
-        <v>0.8258320734631955</v>
+        <v>0.03845633365214293</v>
       </c>
       <c r="Q5">
-        <v>20.36051949300682</v>
+        <v>19.410278070555</v>
       </c>
       <c r="R5">
-        <v>20.36051949300682</v>
+        <v>174.692502634995</v>
       </c>
       <c r="S5">
-        <v>0.03974753369092798</v>
+        <v>0.03595313807287136</v>
       </c>
       <c r="T5">
-        <v>0.03974753369092798</v>
+        <v>0.03595313807287135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H6">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I6">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J6">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.84096144115554</v>
+        <v>9.929107999999999</v>
       </c>
       <c r="N6">
-        <v>1.84096144115554</v>
+        <v>29.787324</v>
       </c>
       <c r="O6">
-        <v>0.154392616296367</v>
+        <v>0.8066781947969484</v>
       </c>
       <c r="P6">
-        <v>0.154392616296367</v>
+        <v>0.8066781947969485</v>
       </c>
       <c r="Q6">
-        <v>3.806480729787975</v>
+        <v>20.54195754479866</v>
       </c>
       <c r="R6">
-        <v>3.806480729787975</v>
+        <v>184.877617903188</v>
       </c>
       <c r="S6">
-        <v>0.007430960742582318</v>
+        <v>0.03804931764556067</v>
       </c>
       <c r="T6">
-        <v>0.007430960742582318</v>
+        <v>0.03804931764556067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.0676591289162</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H7">
-        <v>2.0676591289162</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I7">
-        <v>0.04813028576650383</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J7">
-        <v>0.04813028576650383</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.235798735152275</v>
+        <v>1.894331</v>
       </c>
       <c r="N7">
-        <v>0.235798735152275</v>
+        <v>5.682993</v>
       </c>
       <c r="O7">
-        <v>0.01977531024043757</v>
+        <v>0.1539025974365369</v>
       </c>
       <c r="P7">
-        <v>0.01977531024043757</v>
+        <v>0.1539025974365369</v>
       </c>
       <c r="Q7">
-        <v>0.4875514073244946</v>
+        <v>3.919110052765666</v>
       </c>
       <c r="R7">
-        <v>0.4875514073244946</v>
+        <v>35.27199047489099</v>
       </c>
       <c r="S7">
-        <v>0.0009517913329935296</v>
+        <v>0.007259262558613785</v>
       </c>
       <c r="T7">
-        <v>0.0009517913329935296</v>
+        <v>0.007259262558613783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.692867748254222</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H8">
-        <v>0.692867748254222</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I8">
-        <v>0.01612834642591675</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J8">
-        <v>0.01612834642591675</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.847135443296761</v>
+        <v>0.01185166666666667</v>
       </c>
       <c r="N8">
-        <v>9.847135443296761</v>
+        <v>0.035555</v>
       </c>
       <c r="O8">
-        <v>0.8258320734631955</v>
+        <v>0.000962874114371788</v>
       </c>
       <c r="P8">
-        <v>0.8258320734631955</v>
+        <v>0.000962874114371788</v>
       </c>
       <c r="Q8">
-        <v>6.822762561351367</v>
+        <v>0.02451946675388889</v>
       </c>
       <c r="R8">
-        <v>6.822762561351367</v>
+        <v>0.220675200785</v>
       </c>
       <c r="S8">
-        <v>0.01331930577044755</v>
+        <v>4.541675139693348E-05</v>
       </c>
       <c r="T8">
-        <v>0.01331930577044755</v>
+        <v>4.541675139693346E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.692867748254222</v>
+        <v>2.068862333333333</v>
       </c>
       <c r="H9">
-        <v>0.692867748254222</v>
+        <v>6.206586999999999</v>
       </c>
       <c r="I9">
-        <v>0.01612834642591675</v>
+        <v>0.0471679015138598</v>
       </c>
       <c r="J9">
-        <v>0.01612834642591675</v>
+        <v>0.04716790151385979</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.84096144115554</v>
+        <v>0.4733450000000001</v>
       </c>
       <c r="N9">
-        <v>1.84096144115554</v>
+        <v>1.420035</v>
       </c>
       <c r="O9">
-        <v>0.154392616296367</v>
+        <v>0.03845633365214293</v>
       </c>
       <c r="P9">
-        <v>0.154392616296367</v>
+        <v>0.03845633365214293</v>
       </c>
       <c r="Q9">
-        <v>1.275542808356287</v>
+        <v>0.9792856411716667</v>
       </c>
       <c r="R9">
-        <v>1.275542808356287</v>
+        <v>8.813570770544999</v>
       </c>
       <c r="S9">
-        <v>0.002490097601231447</v>
+        <v>0.00181390455828841</v>
       </c>
       <c r="T9">
-        <v>0.002490097601231447</v>
+        <v>0.00181390455828841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7861760000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.358528</v>
+      </c>
+      <c r="I10">
+        <v>0.01792399211058844</v>
+      </c>
+      <c r="J10">
+        <v>0.01792399211058843</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.929107999999999</v>
+      </c>
+      <c r="N10">
+        <v>29.787324</v>
+      </c>
+      <c r="O10">
+        <v>0.8066781947969484</v>
+      </c>
+      <c r="P10">
+        <v>0.8066781947969485</v>
+      </c>
+      <c r="Q10">
+        <v>7.806026411008</v>
+      </c>
+      <c r="R10">
+        <v>70.25423769907201</v>
+      </c>
+      <c r="S10">
+        <v>0.01445889359932422</v>
+      </c>
+      <c r="T10">
+        <v>0.01445889359932422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.692867748254222</v>
-      </c>
-      <c r="H10">
-        <v>0.692867748254222</v>
-      </c>
-      <c r="I10">
-        <v>0.01612834642591675</v>
-      </c>
-      <c r="J10">
-        <v>0.01612834642591675</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.235798735152275</v>
-      </c>
-      <c r="N10">
-        <v>0.235798735152275</v>
-      </c>
-      <c r="O10">
-        <v>0.01977531024043757</v>
-      </c>
-      <c r="P10">
-        <v>0.01977531024043757</v>
-      </c>
-      <c r="Q10">
-        <v>0.1633773386661505</v>
-      </c>
-      <c r="R10">
-        <v>0.1633773386661505</v>
-      </c>
-      <c r="S10">
-        <v>0.0003189430542377562</v>
-      </c>
-      <c r="T10">
-        <v>0.0003189430542377562</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7861760000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.358528</v>
+      </c>
+      <c r="I11">
+        <v>0.01792399211058844</v>
+      </c>
+      <c r="J11">
+        <v>0.01792399211058843</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.894331</v>
+      </c>
+      <c r="N11">
+        <v>5.682993</v>
+      </c>
+      <c r="O11">
+        <v>0.1539025974365369</v>
+      </c>
+      <c r="P11">
+        <v>0.1539025974365369</v>
+      </c>
+      <c r="Q11">
+        <v>1.489277568256</v>
+      </c>
+      <c r="R11">
+        <v>13.403498114304</v>
+      </c>
+      <c r="S11">
+        <v>0.002758548942251556</v>
+      </c>
+      <c r="T11">
+        <v>0.002758548942251555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7861760000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.358528</v>
+      </c>
+      <c r="I12">
+        <v>0.01792399211058844</v>
+      </c>
+      <c r="J12">
+        <v>0.01792399211058843</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01185166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.035555</v>
+      </c>
+      <c r="O12">
+        <v>0.000962874114371788</v>
+      </c>
+      <c r="P12">
+        <v>0.000962874114371788</v>
+      </c>
+      <c r="Q12">
+        <v>0.009317495893333336</v>
+      </c>
+      <c r="R12">
+        <v>0.08385746304000001</v>
+      </c>
+      <c r="S12">
+        <v>1.725854802948976E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.725854802948976E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7861760000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.358528</v>
+      </c>
+      <c r="I13">
+        <v>0.01792399211058844</v>
+      </c>
+      <c r="J13">
+        <v>0.01792399211058843</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4733450000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.420035</v>
+      </c>
+      <c r="O13">
+        <v>0.03845633365214293</v>
+      </c>
+      <c r="P13">
+        <v>0.03845633365214293</v>
+      </c>
+      <c r="Q13">
+        <v>0.3721324787200001</v>
+      </c>
+      <c r="R13">
+        <v>3.349192308480001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006892910209831666</v>
+      </c>
+      <c r="T13">
+        <v>0.0006892910209831665</v>
       </c>
     </row>
   </sheetData>
